--- a/medicine/Psychotrope/Atlantique_(IGP)/Atlantique_(IGP).xlsx
+++ b/medicine/Psychotrope/Atlantique_(IGP)/Atlantique_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'atlantique[1], anciennement appelé vin de pays de l'Atlantique jusqu'en 2006, est un vin français d'indication géographique protégée régionale (le nouveau nom des vins de pays) produit sur cinq départements de la façade atlantique. L'appellation appartient au vignoble du Sud-Ouest, mais concerne aussi les vins du département de la Gironde ne pouvant prétendre aux appellations d'origine contrôlée du vignoble de Bordeaux (il est ainsi la seule IGP bordelaise).
+L'atlantique, anciennement appelé vin de pays de l'Atlantique jusqu'en 2006, est un vin français d'indication géographique protégée régionale (le nouveau nom des vins de pays) produit sur cinq départements de la façade atlantique. L'appellation appartient au vignoble du Sud-Ouest, mais concerne aussi les vins du département de la Gironde ne pouvant prétendre aux appellations d'origine contrôlée du vignoble de Bordeaux (il est ainsi la seule IGP bordelaise).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone concernée est historiquement concernée par les échanges commerciaux et occupée par la vigne, introduite dès l'Antiquité par les Romains. La tutelle anglaise durant le Moyen Âge contribue à l'essor de la culture viticole.
-La grande majorité de la production de la zone est concernée par des appellations d'origine contrôlée ; l'IGP Aquitaine constitue donc depuis 2006 le socle de la production locale en étant attribuée aux vins ne pouvant prétendre aux AOC dans les régions viticoles du Sud-Ouest et du Bordelais[2].
+La grande majorité de la production de la zone est concernée par des appellations d'origine contrôlée ; l'IGP Aquitaine constitue donc depuis 2006 le socle de la production locale en étant attribuée aux vins ne pouvant prétendre aux AOC dans les régions viticoles du Sud-Ouest et du Bordelais.
 </t>
         </is>
       </c>
@@ -544,23 +558,17 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'une des six IGP régionales de France. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est l'une des six IGP régionales de France. 
 : IGP Atlantique
 : IGP Comté Tolosan (Bigorre, Cantal, Coteaux et Terrasses de Montauban, Haute-Garonne, Tarn-et-Garonne)
 : IGP Comtés Rhodaniens
 : IGP Méditerranée (Comté de Grignan, Coteaux de Montélimar)
 : IGP Pays d’Oc
-: IGP Val de Loire (Allier, Cher, Indre, Indre-et-Loire, Loir-et-Cher, Loire-Atlantique, Loiret, Maine-et-Loire, Marches de Bretagne, Nièvre, Pays de Retz, Sarthe, Vendée, Vienne)[3].
-Orographie et géologie
-Le sol de la zone est essentiellement calcaire, argileux, voire argilo-sableux au contact de la région des Landes de Gascogne et caillouteux au contact de l'arène granitique transportée par les cours d'eau descendant du Massif central. Les trois sols les plus favorables à la vigne sont :
-les sols bruns argilo-calcaires sur substrat calcaire,
-les sols lessivés de boulbènes (limono-sableux) issus de recouvrements de limons éoliens sur les sables, argiles et graviers du Périgord
-les sols alluviaux de graviers, argile, sables et limons correspondant aux terrasses anciennes et récentes des fleuves et rivières[2].
-Climat
-Le climat est très nettement océanique, légèrement dégradé au fil de l'éloignement dans les terres, ponctuellement touché par une influence méditerranéenne dans l'est de la zone.
-</t>
+: IGP Val de Loire (Allier, Cher, Indre, Indre-et-Loire, Loir-et-Cher, Loire-Atlantique, Loiret, Maine-et-Loire, Marches de Bretagne, Nièvre, Pays de Retz, Sarthe, Vendée, Vienne).</t>
         </is>
       </c>
     </row>
@@ -585,32 +593,251 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orographie et géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le sol de la zone est essentiellement calcaire, argileux, voire argilo-sableux au contact de la région des Landes de Gascogne et caillouteux au contact de l'arène granitique transportée par les cours d'eau descendant du Massif central. Les trois sols les plus favorables à la vigne sont :
+les sols bruns argilo-calcaires sur substrat calcaire,
+les sols lessivés de boulbènes (limono-sableux) issus de recouvrements de limons éoliens sur les sables, argiles et graviers du Périgord
+les sols alluviaux de graviers, argile, sables et limons correspondant aux terrasses anciennes et récentes des fleuves et rivières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat est très nettement océanique, légèrement dégradé au fil de l'éloignement dans les terres, ponctuellement touché par une influence méditerranéenne dans l'est de la zone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-La récolte, la vinification et l'élaboration des vins de l'IGP Atlantique se font dans les départements de la Charente, de la Charente-Maritime, de la Dordogne, de la Gironde, et dans certains anciens cantons du département de Lot-et-Garonne, à savoir ceux de Bouglon, Casteljaloux, Duras, Houeillès, Lavardac et de Meilhan-sur-Garonne en totalité, et ceux de Damazan, Laplume, Lauzun, Marmande, Le Mas-d'Agenais, Nérac et de Seyches en partie[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte, la vinification et l'élaboration des vins de l'IGP Atlantique se font dans les départements de la Charente, de la Charente-Maritime, de la Dordogne, de la Gironde, et dans certains anciens cantons du département de Lot-et-Garonne, à savoir ceux de Bouglon, Casteljaloux, Duras, Houeillès, Lavardac et de Meilhan-sur-Garonne en totalité, et ceux de Damazan, Laplume, Lauzun, Marmande, Le Mas-d'Agenais, Nérac et de Seyches en partie.
 Une zone de proximité immédiate a été définie, dans laquelle la vinification et l'élaboration des vins peut s'effectuer. Elle correspond aux arrondissements touchant immédiatement la zone citée précédemment.
-Conditions de production
-Encépagement
-Pour les vins blancs, les cépages utilisés sont l'abondant B, l'aligoté B, l'altesse B, l'alvarinho B, l'aramon blanc B, l'aramon gris G, l'aranel B, l'arbane B, l'arriloba B, l'arrufiac B, l'aubin blanc B, l'aubin vert B, l'auxerrois B, le barbaroux Rs, le baroque B, le biancu gentile B, le blanc dame B, le bouquettraube B, le bourboulenc B, le bouteillan B, le camaralet B, le carcajolo blanc B, le carignan blanc B, chardonnay B, le chasan B, le chasselas B, le chasselas rose Rs, le chenin B, la clairette B, la clairette rose Rs, le clarin B, le claverie B, le codivarta B, le colombar B, le courbu B, le crouchen B, le danlas B, l'elbling B, le folignan B, la folle blanche B, le furmint B, le genovèse B, le goldriesling B, la graisse B, le grenache blanc B, le grenache gris G, le gringet B, le grolleau gris G, le gros manseng B, le gros vert B, la jacquère B, le jurançon blanc B, le knipperlé B, le lauzet B, le len de l'el B, le liliorila B, le listan B, le macabeu B, la marsanne B, le mauzac B, le mauzac rose Rs, le mayorquin B, le melon B, le merlot blanc B, le meslier Saint-François B, la molette B, la mondeuse blanche B, le montils B, le müller-thurgau B, la muscadelle B, le muscat à petits grains blancs B, le muscat à petits grains roses Rs, le muscat d'Alexandrie B, le muscat cendré B, le muscat ottonel B, l'ondenc B, l'orbois B, le pagadebiti B, le pascal B, le perdea B, le petit Courbu B, le petit manseng B, le petit meslier B, le picardan B, le pinot blanc B, le pinot gris G, le piquepoul blanc B, le piquepoul gris G, le précoce bousquet B, le précoce de Malingre B, le raffiat de Moncade B, le riminèse B, le rivairenc blanc B, le rivairenc gris G, le romorantin B, le rosé du Var Rs, le roublot B, la roussanne B, la roussette d'Ayze B, le sacy B, le saint-côme B, le saint-pierre doré B, le sauvignon B, le sauvignon gris G, le savagnin blanc B, le savagnin rose Rs, le select B, le sémillon B, le servant B, le terret blanc B, le terret gris G, le tourbat B, l'ugni blanc B, le velteliner rouge précoce Rs, le verdesse B, le vermentino B, le viognier B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les vins blancs, les cépages utilisés sont l'abondant B, l'aligoté B, l'altesse B, l'alvarinho B, l'aramon blanc B, l'aramon gris G, l'aranel B, l'arbane B, l'arriloba B, l'arrufiac B, l'aubin blanc B, l'aubin vert B, l'auxerrois B, le barbaroux Rs, le baroque B, le biancu gentile B, le blanc dame B, le bouquettraube B, le bourboulenc B, le bouteillan B, le camaralet B, le carcajolo blanc B, le carignan blanc B, chardonnay B, le chasan B, le chasselas B, le chasselas rose Rs, le chenin B, la clairette B, la clairette rose Rs, le clarin B, le claverie B, le codivarta B, le colombar B, le courbu B, le crouchen B, le danlas B, l'elbling B, le folignan B, la folle blanche B, le furmint B, le genovèse B, le goldriesling B, la graisse B, le grenache blanc B, le grenache gris G, le gringet B, le grolleau gris G, le gros manseng B, le gros vert B, la jacquère B, le jurançon blanc B, le knipperlé B, le lauzet B, le len de l'el B, le liliorila B, le listan B, le macabeu B, la marsanne B, le mauzac B, le mauzac rose Rs, le mayorquin B, le melon B, le merlot blanc B, le meslier Saint-François B, la molette B, la mondeuse blanche B, le montils B, le müller-thurgau B, la muscadelle B, le muscat à petits grains blancs B, le muscat à petits grains roses Rs, le muscat d'Alexandrie B, le muscat cendré B, le muscat ottonel B, l'ondenc B, l'orbois B, le pagadebiti B, le pascal B, le perdea B, le petit Courbu B, le petit manseng B, le petit meslier B, le picardan B, le pinot blanc B, le pinot gris G, le piquepoul blanc B, le piquepoul gris G, le précoce bousquet B, le précoce de Malingre B, le raffiat de Moncade B, le riminèse B, le rivairenc blanc B, le rivairenc gris G, le romorantin B, le rosé du Var Rs, le roublot B, la roussanne B, la roussette d'Ayze B, le sacy B, le saint-côme B, le saint-pierre doré B, le sauvignon B, le sauvignon gris G, le savagnin blanc B, le savagnin rose Rs, le select B, le sémillon B, le servant B, le terret blanc B, le terret gris G, le tourbat B, l'ugni blanc B, le velteliner rouge précoce Rs, le verdesse B, le vermentino B, le viognier B.
 Pour les vins rouges et rosés, les cépages utilisés sont l'abouriou N, l'aleatico N, l'alicante Henri Bouschet N, l'Alphonse Lavallée N, l'aramon N, l'aramon gris, l'arinarnoa N, l'arrouya N, l'aubun N, le bachet N, le béclan N, le béquignol N, le bouchalès N, le bouillet N, le brachet N, le brun argenté N, le brun fourca N, le cabernet franc N, le cabernet-sauvignon N, le caladoc N, le calitor N, le carcajolo N, le carignan N, le carménère N, le castets N, le césar N, le chatus N, le chenanson N, le cinsaut N, le côt N, le corbeau N, la counoise N, le courbu noir N, le duras N, le durif N, l'egiodola N, l'ekigaïna N, l'étraire de la Dui N, le fer N, le feunate N, le franc noir de la Haute-Saône N, le fuella nera N, le gamaret N, le gamay N, le gamay de Bouze N, le gamay teinturier de Chaudenay N, le gamay fréaux N, le ganson N, le gascon N, le gouget N, le gramon N, le grassen N, le grenache N, le grolleau N, le joubertin N, le jurançon noir N, le lival N, le mancin N, le manseng noir N, le marselan N, le mérille N, le merlot N, le meunier N, le milgranet N, le mollard N, la mondeuse N, le monerac N, le morrastel N, le mourvaison N, le mourvèdre N, le mouyssaguès N, le muresconu N, le muscardin N, le muscat de Hambourg N, le négret de Banhars N, la négrette N, le nielluccio N, le noir fleurien N, le persan N, le petit verdot N, le pineau d'Aunis N, le pinot noir N, le piquepoul noir N, le plant droit N, le portan N, le poulsard N, le prunelard N, le ribol N, le rivairenc N, le Saint-Macaire N, le sciaccarello N, le ségalin N, le semebat N, le servanin N, la syrah N, le tannat N, le tempranillo N, le téoulier N, le terret noir N, le tibouren N, le tressot N, le trousseau N, le valdiguié N, le velteliner rouge précoce Rs.
-Types de vin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il existe 6 labellisations différentes :
 Atlantique blanc
 Atlantique rosé
 Atlantique rouge
 Atlantique primeur ou nouveau blanc
 Atlantique primeur ou nouveau rosé
-Atlantique primeur ou nouveau rouge
-Vin et gastronomie
-Les blancs et rosés, légers et frais, se boivent notamment avec les huîtres d'Arcachon ou Marennes-Oléron.
+Atlantique primeur ou nouveau rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vin et gastronomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les blancs et rosés, légers et frais, se boivent notamment avec les huîtres d'Arcachon ou Marennes-Oléron.
 			Moules et vin blanc
-Production et structure des exploitations
-Commercialisation
-Le vin IGP Atlantique est largement commercialisé en saison touristique sur les stations balnéaires de la côte aquitaine et charentaise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlantique_(IGP)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin IGP Atlantique est largement commercialisé en saison touristique sur les stations balnéaires de la côte aquitaine et charentaise.
 </t>
         </is>
       </c>
